--- a/data/trans_orig/Q23_2_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_2_2015-Habitat-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>16,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>16,93</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,3; 17,79</t>
+          <t>15,77; 17,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 25,35</t>
+          <t>17,17; 21,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 19,65</t>
+          <t>16,32; 17,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,24</t>
+          <t>18,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,79</t>
+          <t>17,82</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 17,33</t>
+          <t>16,58; 19,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,6</t>
+          <t>17,32; 20,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 17,79</t>
+          <t>17,03; 19,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,44</t>
+          <t>16,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>17,06</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 19,97</t>
+          <t>16,02; 19,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,68</t>
+          <t>15,13; 16,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 19,47</t>
+          <t>16,19; 18,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>17,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,15</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>17,51</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 19,09</t>
+          <t>16,67; 17,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 16,88</t>
+          <t>17,03; 19,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 18,35</t>
+          <t>16,9; 18,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>17,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>17,39</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,89</t>
+          <t>16,73; 17,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,03; 19,89</t>
+          <t>17,37; 19,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 18,1</t>
+          <t>17,0; 17,88</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,16</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 17,78</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,37; 19,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 17,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
